--- a/predictions/Прогнозы_GP_lin_Per.xlsx
+++ b/predictions/Прогнозы_GP_lin_Per.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>23224211.06701303</v>
+        <v>22729074.70220733</v>
       </c>
       <c r="C2" t="n">
-        <v>23627384.59655166</v>
+        <v>23086758.32202339</v>
       </c>
       <c r="D2" t="n">
-        <v>24010910.35021472</v>
+        <v>23444552.810709</v>
       </c>
       <c r="E2" t="n">
-        <v>24382376.96607304</v>
+        <v>23802288.09752655</v>
       </c>
       <c r="F2" t="n">
-        <v>24785738.2707746</v>
+        <v>24159983.7209959</v>
       </c>
       <c r="G2" t="n">
-        <v>25168764.6634407</v>
+        <v>24517786.251405</v>
       </c>
       <c r="H2" t="n">
-        <v>25540550.73284793</v>
+        <v>24875499.86210322</v>
       </c>
       <c r="I2" t="n">
-        <v>25944086.94597721</v>
+        <v>25233213.51521182</v>
       </c>
       <c r="J2" t="n">
-        <v>26326616.18674612</v>
+        <v>25591016.03649855</v>
       </c>
       <c r="K2" t="n">
-        <v>26698732.33083034</v>
+        <v>25948711.62829542</v>
       </c>
       <c r="L2" t="n">
-        <v>27102430.45795989</v>
+        <v>26306446.96298194</v>
       </c>
       <c r="M2" t="n">
-        <v>27484465.12351394</v>
+        <v>26664241.42563772</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7361289.775874138</v>
+        <v>9275938.924399495</v>
       </c>
       <c r="C3" t="n">
-        <v>7514649.979539871</v>
+        <v>9511631.161626816</v>
       </c>
       <c r="D3" t="n">
-        <v>7668010.183200836</v>
+        <v>9765057.006251097</v>
       </c>
       <c r="E3" t="n">
-        <v>7821370.386869431</v>
+        <v>10022725.566468</v>
       </c>
       <c r="F3" t="n">
-        <v>7974730.590530396</v>
+        <v>10243871.66371369</v>
       </c>
       <c r="G3" t="n">
-        <v>8128090.794196129</v>
+        <v>10520712.92709494</v>
       </c>
       <c r="H3" t="n">
-        <v>8281450.997859001</v>
+        <v>10792459.16412401</v>
       </c>
       <c r="I3" t="n">
-        <v>8434811.20152092</v>
+        <v>11046089.24555111</v>
       </c>
       <c r="J3" t="n">
-        <v>8588171.405187607</v>
+        <v>11334881.25993919</v>
       </c>
       <c r="K3" t="n">
-        <v>8741531.608850479</v>
+        <v>11575367.22378802</v>
       </c>
       <c r="L3" t="n">
-        <v>8894891.812516212</v>
+        <v>11812432.78613639</v>
       </c>
       <c r="M3" t="n">
-        <v>9048252.016180992</v>
+        <v>12086147.25554061</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7626168.014567375</v>
+        <v>15296317.49529171</v>
       </c>
       <c r="C4" t="n">
-        <v>7785046.514871597</v>
+        <v>15614990.77644539</v>
       </c>
       <c r="D4" t="n">
-        <v>7943925.015174866</v>
+        <v>15933664.05759621</v>
       </c>
       <c r="E4" t="n">
-        <v>8102803.515479088</v>
+        <v>16252337.33874893</v>
       </c>
       <c r="F4" t="n">
-        <v>8261682.015782356</v>
+        <v>16571010.61990166</v>
       </c>
       <c r="G4" t="n">
-        <v>8420560.516086578</v>
+        <v>16889683.90105152</v>
       </c>
       <c r="H4" t="n">
-        <v>8579439.016388893</v>
+        <v>17208357.18220425</v>
       </c>
       <c r="I4" t="n">
-        <v>8738317.516692162</v>
+        <v>17527030.46335602</v>
       </c>
       <c r="J4" t="n">
-        <v>8897196.016996384</v>
+        <v>17845703.74450779</v>
       </c>
       <c r="K4" t="n">
-        <v>9056074.517298698</v>
+        <v>18164377.02565956</v>
       </c>
       <c r="L4" t="n">
-        <v>9214953.017601013</v>
+        <v>18483050.30681133</v>
       </c>
       <c r="M4" t="n">
-        <v>9373831.517906189</v>
+        <v>18801723.58796501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1141686.248352287</v>
+        <v>25979333.70567036</v>
       </c>
       <c r="C5" t="n">
-        <v>1141666.689554675</v>
+        <v>26520569.82453871</v>
       </c>
       <c r="D5" t="n">
-        <v>1141692.323238324</v>
+        <v>27061805.94340706</v>
       </c>
       <c r="E5" t="n">
-        <v>1141724.08806704</v>
+        <v>27603042.06227469</v>
       </c>
       <c r="F5" t="n">
-        <v>1141727.969717748</v>
+        <v>28144278.18114376</v>
       </c>
       <c r="G5" t="n">
-        <v>1141696.07801267</v>
+        <v>28685514.30001211</v>
       </c>
       <c r="H5" t="n">
-        <v>1141658.229244822</v>
+        <v>29226750.41887975</v>
       </c>
       <c r="I5" t="n">
-        <v>1141651.789161946</v>
+        <v>29767986.53774762</v>
       </c>
       <c r="J5" t="n">
-        <v>1141704.684410918</v>
+        <v>30309222.65661597</v>
       </c>
       <c r="K5" t="n">
-        <v>1141763.525908487</v>
+        <v>30850458.77548361</v>
       </c>
       <c r="L5" t="n">
-        <v>1141739.879813976</v>
+        <v>31391694.89435196</v>
       </c>
       <c r="M5" t="n">
-        <v>1141781.157193771</v>
+        <v>31932931.01321983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11419496.9476428</v>
+        <v>3907926.732453197</v>
       </c>
       <c r="C6" t="n">
-        <v>11657403.1340518</v>
+        <v>3951421.170387477</v>
       </c>
       <c r="D6" t="n">
-        <v>11895309.32046086</v>
+        <v>3996270.915225819</v>
       </c>
       <c r="E6" t="n">
-        <v>12133215.50687033</v>
+        <v>4042462.563047335</v>
       </c>
       <c r="F6" t="n">
-        <v>12371121.69327945</v>
+        <v>4089967.735845089</v>
       </c>
       <c r="G6" t="n">
-        <v>12609027.87968862</v>
+        <v>4138743.636888742</v>
       </c>
       <c r="H6" t="n">
-        <v>12846934.06609797</v>
+        <v>4188733.741009399</v>
       </c>
       <c r="I6" t="n">
-        <v>13084840.25250721</v>
+        <v>4239868.604961514</v>
       </c>
       <c r="J6" t="n">
-        <v>13322746.43891644</v>
+        <v>4292066.789433733</v>
       </c>
       <c r="K6" t="n">
-        <v>13560652.62532544</v>
+        <v>4345235.854520306</v>
       </c>
       <c r="L6" t="n">
-        <v>13798558.81173491</v>
+        <v>4399273.454471022</v>
       </c>
       <c r="M6" t="n">
-        <v>14036464.99814415</v>
+        <v>4454068.473792493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3118600.838331521</v>
+        <v>7785137.420916796</v>
       </c>
       <c r="C7" t="n">
-        <v>3170629.664414642</v>
+        <v>7947327.783852816</v>
       </c>
       <c r="D7" t="n">
-        <v>3222778.8918144</v>
+        <v>8109518.146789312</v>
       </c>
       <c r="E7" t="n">
-        <v>3275014.482988665</v>
+        <v>8271708.509724379</v>
       </c>
       <c r="F7" t="n">
-        <v>3327261.025899136</v>
+        <v>8433898.872660637</v>
       </c>
       <c r="G7" t="n">
-        <v>3379437.88217498</v>
+        <v>8596089.235596418</v>
       </c>
       <c r="H7" t="n">
-        <v>3431497.86780118</v>
+        <v>8758279.598531723</v>
       </c>
       <c r="I7" t="n">
-        <v>3483449.741943626</v>
+        <v>8920469.961467743</v>
       </c>
       <c r="J7" t="n">
-        <v>3535354.064736955</v>
+        <v>9082660.324403524</v>
       </c>
       <c r="K7" t="n">
-        <v>3587294.231441624</v>
+        <v>9244850.687339544</v>
       </c>
       <c r="L7" t="n">
-        <v>3639336.512501538</v>
+        <v>9407041.050274849</v>
       </c>
       <c r="M7" t="n">
-        <v>3691498.145713575</v>
+        <v>9569231.41321063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1825507.754383981</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="C8" t="n">
-        <v>1863539.165933654</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="D8" t="n">
-        <v>1901570.577483326</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="E8" t="n">
-        <v>1939601.989032954</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="F8" t="n">
-        <v>1977633.400582679</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="G8" t="n">
-        <v>2015664.812132314</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="H8" t="n">
-        <v>2053696.223681986</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="I8" t="n">
-        <v>2091727.635231674</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="J8" t="n">
-        <v>2129759.046781324</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="K8" t="n">
-        <v>2167790.458331004</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="L8" t="n">
-        <v>2205821.869880624</v>
+        <v>16117885.04575144</v>
       </c>
       <c r="M8" t="n">
-        <v>2243853.281430304</v>
+        <v>16117885.04575144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2480424.518154263</v>
+        <v>32562500.13909936</v>
       </c>
       <c r="C9" t="n">
-        <v>2532100.028949261</v>
+        <v>33240885.55866194</v>
       </c>
       <c r="D9" t="n">
-        <v>2583775.539744258</v>
+        <v>33919270.9782269</v>
       </c>
       <c r="E9" t="n">
-        <v>2635451.050539136</v>
+        <v>34597656.39779067</v>
       </c>
       <c r="F9" t="n">
-        <v>2687126.561333895</v>
+        <v>35276041.81735516</v>
       </c>
       <c r="G9" t="n">
-        <v>2738802.072129011</v>
+        <v>35954427.23691726</v>
       </c>
       <c r="H9" t="n">
-        <v>2790477.582923532</v>
+        <v>36632812.65648556</v>
       </c>
       <c r="I9" t="n">
-        <v>2842153.093718529</v>
+        <v>37311198.07604766</v>
       </c>
       <c r="J9" t="n">
-        <v>2893828.604513645</v>
+        <v>37989583.49561071</v>
       </c>
       <c r="K9" t="n">
-        <v>2945504.115308285</v>
+        <v>38667968.91517782</v>
       </c>
       <c r="L9" t="n">
-        <v>2997179.626103163</v>
+        <v>39346354.33474207</v>
       </c>
       <c r="M9" t="n">
-        <v>3048855.136898279</v>
+        <v>40024739.75430632</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7100089.202256918</v>
+        <v>12395843.08280364</v>
       </c>
       <c r="C10" t="n">
-        <v>7248007.727303505</v>
+        <v>12723782.0086742</v>
       </c>
       <c r="D10" t="n">
-        <v>7395926.252350807</v>
+        <v>13051746.55345696</v>
       </c>
       <c r="E10" t="n">
-        <v>7543844.777397871</v>
+        <v>13379702.35566717</v>
       </c>
       <c r="F10" t="n">
-        <v>7691763.302444696</v>
+        <v>13707628.11546743</v>
       </c>
       <c r="G10" t="n">
-        <v>7839681.82749176</v>
+        <v>14035547.41870457</v>
       </c>
       <c r="H10" t="n">
-        <v>7987600.352538824</v>
+        <v>14363493.49683288</v>
       </c>
       <c r="I10" t="n">
-        <v>8135518.877585649</v>
+        <v>14691459.57898009</v>
       </c>
       <c r="J10" t="n">
-        <v>8283437.402632713</v>
+        <v>15019409.00649667</v>
       </c>
       <c r="K10" t="n">
-        <v>8431355.927679777</v>
+        <v>15347330.00395316</v>
       </c>
       <c r="L10" t="n">
-        <v>8579274.452727079</v>
+        <v>15675253.27221256</v>
       </c>
       <c r="M10" t="n">
-        <v>8727192.977774143</v>
+        <v>16003206.11884242</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3276464.851268366</v>
+        <v>12635608.43365765</v>
       </c>
       <c r="C11" t="n">
-        <v>3404058.766062662</v>
+        <v>12898850.2760253</v>
       </c>
       <c r="D11" t="n">
-        <v>3468654.821548939</v>
+        <v>13162092.11839342</v>
       </c>
       <c r="E11" t="n">
-        <v>3487367.579368904</v>
+        <v>13425333.96076107</v>
       </c>
       <c r="F11" t="n">
-        <v>3537455.906853825</v>
+        <v>13688575.8031292</v>
       </c>
       <c r="G11" t="n">
-        <v>3627735.112527549</v>
+        <v>13951817.64549732</v>
       </c>
       <c r="H11" t="n">
-        <v>3754628.99381873</v>
+        <v>14215059.48786449</v>
       </c>
       <c r="I11" t="n">
-        <v>3801072.877217025</v>
+        <v>14478301.33023167</v>
       </c>
       <c r="J11" t="n">
-        <v>3824438.615517959</v>
+        <v>14741543.17259932</v>
       </c>
       <c r="K11" t="n">
-        <v>3880271.430143028</v>
+        <v>15004785.0149684</v>
       </c>
       <c r="L11" t="n">
-        <v>3980931.067142472</v>
+        <v>15268026.85733557</v>
       </c>
       <c r="M11" t="n">
-        <v>4101415.194375575</v>
+        <v>15531268.6997056</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>437148.4576505944</v>
+        <v>47056989.5681906</v>
       </c>
       <c r="C12" t="n">
-        <v>390212.3841981962</v>
+        <v>47003491.54887798</v>
       </c>
       <c r="D12" t="n">
-        <v>343482.3328435197</v>
+        <v>44344992.98722115</v>
       </c>
       <c r="E12" t="n">
-        <v>296944.9742022008</v>
+        <v>45757762.42215693</v>
       </c>
       <c r="F12" t="n">
-        <v>250584.6398187205</v>
+        <v>49317623.74370736</v>
       </c>
       <c r="G12" t="n">
-        <v>204383.512054868</v>
+        <v>49054948.07576543</v>
       </c>
       <c r="H12" t="n">
-        <v>158321.8396093249</v>
+        <v>46458126.43778616</v>
       </c>
       <c r="I12" t="n">
-        <v>112378.1761394367</v>
+        <v>48067157.33176607</v>
       </c>
       <c r="J12" t="n">
-        <v>66529.63919520378</v>
+        <v>51570543.78951973</v>
       </c>
       <c r="K12" t="n">
-        <v>20752.186449036</v>
+        <v>51101022.55631682</v>
       </c>
       <c r="L12" t="n">
-        <v>-24979.09399804473</v>
+        <v>48580521.62541392</v>
       </c>
       <c r="M12" t="n">
-        <v>-70689.68261547387</v>
+        <v>50380375.98486137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1287873.7465555</v>
+        <v>40807227.68489718</v>
       </c>
       <c r="C13" t="n">
-        <v>1314704.449608739</v>
+        <v>41046791.53597832</v>
       </c>
       <c r="D13" t="n">
-        <v>1341535.152661975</v>
+        <v>41286355.38705945</v>
       </c>
       <c r="E13" t="n">
-        <v>1368365.855715223</v>
+        <v>41525919.23814011</v>
       </c>
       <c r="F13" t="n">
-        <v>1395196.558768462</v>
+        <v>41765483.08922195</v>
       </c>
       <c r="G13" t="n">
-        <v>1422027.261821695</v>
+        <v>42005046.94030285</v>
       </c>
       <c r="H13" t="n">
-        <v>1448857.964874934</v>
+        <v>42244610.79138398</v>
       </c>
       <c r="I13" t="n">
-        <v>1475688.667928174</v>
+        <v>42484174.64246583</v>
       </c>
       <c r="J13" t="n">
-        <v>1502519.370981418</v>
+        <v>42723738.49354696</v>
       </c>
       <c r="K13" t="n">
-        <v>1529350.074034654</v>
+        <v>42963302.34462786</v>
       </c>
       <c r="L13" t="n">
-        <v>1556180.777087893</v>
+        <v>43202866.19570947</v>
       </c>
       <c r="M13" t="n">
-        <v>1583011.480141133</v>
+        <v>43442430.04678988</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1136888.105753779</v>
+        <v>595924.8595417142</v>
       </c>
       <c r="C14" t="n">
-        <v>1160573.274623632</v>
+        <v>581095.3807696104</v>
       </c>
       <c r="D14" t="n">
-        <v>1184258.443493605</v>
+        <v>664512.0275223851</v>
       </c>
       <c r="E14" t="n">
-        <v>1207943.612363338</v>
+        <v>816352.9984101951</v>
       </c>
       <c r="F14" t="n">
-        <v>1231628.781233191</v>
+        <v>701906.4042567313</v>
       </c>
       <c r="G14" t="n">
-        <v>1255313.950103283</v>
+        <v>680133.7594202459</v>
       </c>
       <c r="H14" t="n">
-        <v>1278999.11897254</v>
+        <v>696150.0322817266</v>
       </c>
       <c r="I14" t="n">
-        <v>1302684.287842631</v>
+        <v>693258.708237499</v>
       </c>
       <c r="J14" t="n">
-        <v>1326369.456712008</v>
+        <v>828995.8502562046</v>
       </c>
       <c r="K14" t="n">
-        <v>1350054.625582457</v>
+        <v>757548.8499656022</v>
       </c>
       <c r="L14" t="n">
-        <v>1373739.794452548</v>
+        <v>672593.4215453863</v>
       </c>
       <c r="M14" t="n">
-        <v>1397424.963322282</v>
+        <v>706795.9013051987</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>690165.3650854081</v>
+        <v>4536863.32969597</v>
       </c>
       <c r="C15" t="n">
-        <v>707764.6571035683</v>
+        <v>4631381.315731347</v>
       </c>
       <c r="D15" t="n">
-        <v>725363.9491217136</v>
+        <v>4725899.301766634</v>
       </c>
       <c r="E15" t="n">
-        <v>742963.2411399037</v>
+        <v>4820417.287801981</v>
       </c>
       <c r="F15" t="n">
-        <v>760562.533158049</v>
+        <v>4914935.273837328</v>
       </c>
       <c r="G15" t="n">
-        <v>778161.8251761347</v>
+        <v>5009453.259872645</v>
       </c>
       <c r="H15" t="n">
-        <v>795761.1171942949</v>
+        <v>5103971.245907992</v>
       </c>
       <c r="I15" t="n">
-        <v>813360.4092124403</v>
+        <v>5198489.231943339</v>
       </c>
       <c r="J15" t="n">
-        <v>830959.7012306154</v>
+        <v>5293007.217978656</v>
       </c>
       <c r="K15" t="n">
-        <v>848558.9932487756</v>
+        <v>5387525.204013973</v>
       </c>
       <c r="L15" t="n">
-        <v>866158.2852668762</v>
+        <v>5482043.190049291</v>
       </c>
       <c r="M15" t="n">
-        <v>883757.5772850215</v>
+        <v>5576561.176084638</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>800453.6222214699</v>
+        <v>11697195.95106333</v>
       </c>
       <c r="C16" t="n">
-        <v>817129.7393512726</v>
+        <v>11940887.53337687</v>
       </c>
       <c r="D16" t="n">
-        <v>833805.8564805984</v>
+        <v>12184579.11569095</v>
       </c>
       <c r="E16" t="n">
-        <v>850481.9736113548</v>
+        <v>12428270.69800484</v>
       </c>
       <c r="F16" t="n">
-        <v>867158.0907402039</v>
+        <v>12671962.28031838</v>
       </c>
       <c r="G16" t="n">
-        <v>883834.2078700066</v>
+        <v>12915653.86263227</v>
       </c>
       <c r="H16" t="n">
-        <v>900510.3250002861</v>
+        <v>13159345.44494605</v>
       </c>
       <c r="I16" t="n">
-        <v>917186.4421286583</v>
+        <v>13403037.02726018</v>
       </c>
       <c r="J16" t="n">
-        <v>933862.5592579842</v>
+        <v>13646728.60957396</v>
       </c>
       <c r="K16" t="n">
-        <v>950538.6763887405</v>
+        <v>13890420.19188797</v>
       </c>
       <c r="L16" t="n">
-        <v>967214.7935185432</v>
+        <v>14134111.77420151</v>
       </c>
       <c r="M16" t="n">
-        <v>983890.9106483459</v>
+        <v>14377803.35651517</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3756259.226361543</v>
+        <v>5605237.343853086</v>
       </c>
       <c r="C17" t="n">
-        <v>3853133.191466779</v>
+        <v>5722013.121849865</v>
       </c>
       <c r="D17" t="n">
-        <v>3950007.156572819</v>
+        <v>5838788.899846971</v>
       </c>
       <c r="E17" t="n">
-        <v>4046881.121678203</v>
+        <v>5955564.677843899</v>
       </c>
       <c r="F17" t="n">
-        <v>4143755.086783946</v>
+        <v>6072340.455840945</v>
       </c>
       <c r="G17" t="n">
-        <v>4240629.051889688</v>
+        <v>6189116.233837724</v>
       </c>
       <c r="H17" t="n">
-        <v>4337503.016995132</v>
+        <v>6305892.01183477</v>
       </c>
       <c r="I17" t="n">
-        <v>4434376.982101023</v>
+        <v>6422667.789831698</v>
       </c>
       <c r="J17" t="n">
-        <v>4531250.947206616</v>
+        <v>6539443.567828655</v>
       </c>
       <c r="K17" t="n">
-        <v>4628124.91231209</v>
+        <v>6656219.345825702</v>
       </c>
       <c r="L17" t="n">
-        <v>4724998.877417862</v>
+        <v>6772995.12382248</v>
       </c>
       <c r="M17" t="n">
-        <v>4821872.842523515</v>
+        <v>6889770.901819229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1515576.838125676</v>
+        <v>4031838.086918056</v>
       </c>
       <c r="C18" t="n">
-        <v>1547151.355586559</v>
+        <v>4086670.041399539</v>
       </c>
       <c r="D18" t="n">
-        <v>1578725.873047531</v>
+        <v>4141501.995879948</v>
       </c>
       <c r="E18" t="n">
-        <v>1610300.390508473</v>
+        <v>4196333.950361192</v>
       </c>
       <c r="F18" t="n">
-        <v>1641874.907969415</v>
+        <v>4251165.904842138</v>
       </c>
       <c r="G18" t="n">
-        <v>1673449.425430417</v>
+        <v>4305997.859323084</v>
       </c>
       <c r="H18" t="n">
-        <v>1705023.942891359</v>
+        <v>4360829.813804626</v>
       </c>
       <c r="I18" t="n">
-        <v>1736598.460352302</v>
+        <v>4415661.768285334</v>
       </c>
       <c r="J18" t="n">
-        <v>1768172.977813244</v>
+        <v>4470493.72276634</v>
       </c>
       <c r="K18" t="n">
-        <v>1799747.495274246</v>
+        <v>4525325.677246809</v>
       </c>
       <c r="L18" t="n">
-        <v>1831322.012735188</v>
+        <v>4580157.63172853</v>
       </c>
       <c r="M18" t="n">
-        <v>1862896.530196071</v>
+        <v>4634989.586209238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>150818.5599186271</v>
+        <v>6036203.287998796</v>
       </c>
       <c r="C19" t="n">
-        <v>153960.6132502332</v>
+        <v>6081437.091939442</v>
       </c>
       <c r="D19" t="n">
-        <v>157102.6665818617</v>
+        <v>6126670.895880081</v>
       </c>
       <c r="E19" t="n">
-        <v>160244.7199135348</v>
+        <v>6171904.69982072</v>
       </c>
       <c r="F19" t="n">
-        <v>163386.7732450962</v>
+        <v>6217138.503761306</v>
       </c>
       <c r="G19" t="n">
-        <v>166528.8265767694</v>
+        <v>6262372.30770199</v>
       </c>
       <c r="H19" t="n">
-        <v>169670.8799083978</v>
+        <v>6307606.111642614</v>
       </c>
       <c r="I19" t="n">
-        <v>172812.9332400411</v>
+        <v>6352839.915583253</v>
       </c>
       <c r="J19" t="n">
-        <v>175954.9865717292</v>
+        <v>6398073.719523862</v>
       </c>
       <c r="K19" t="n">
-        <v>179097.039903298</v>
+        <v>6443307.523464501</v>
       </c>
       <c r="L19" t="n">
-        <v>182239.093235001</v>
+        <v>6488541.327405155</v>
       </c>
       <c r="M19" t="n">
-        <v>185381.1465665847</v>
+        <v>6533775.131345794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2312535.743824422</v>
+        <v>4263480.877168328</v>
       </c>
       <c r="C20" t="n">
-        <v>2318491.433888733</v>
+        <v>4352303.395442665</v>
       </c>
       <c r="D20" t="n">
-        <v>2324447.123953044</v>
+        <v>4441125.91371721</v>
       </c>
       <c r="E20" t="n">
-        <v>2330402.814017594</v>
+        <v>4529948.431991458</v>
       </c>
       <c r="F20" t="n">
-        <v>2336358.504082084</v>
+        <v>4618770.950265706</v>
       </c>
       <c r="G20" t="n">
-        <v>2342314.194146395</v>
+        <v>4707593.468540132</v>
       </c>
       <c r="H20" t="n">
-        <v>2348269.884210765</v>
+        <v>4796415.98681438</v>
       </c>
       <c r="I20" t="n">
-        <v>2354225.574275136</v>
+        <v>4885238.505088806</v>
       </c>
       <c r="J20" t="n">
-        <v>2360181.264339447</v>
+        <v>4974061.023363113</v>
       </c>
       <c r="K20" t="n">
-        <v>2366136.954403698</v>
+        <v>5062883.541637421</v>
       </c>
       <c r="L20" t="n">
-        <v>2372092.644468069</v>
+        <v>5151706.059911847</v>
       </c>
       <c r="M20" t="n">
-        <v>2378048.334532559</v>
+        <v>5240528.578186095</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>936299.5726193346</v>
+        <v>4109303.168920368</v>
       </c>
       <c r="C21" t="n">
-        <v>936299.5726193346</v>
+        <v>4239272.728141703</v>
       </c>
       <c r="D21" t="n">
-        <v>936299.5726193346</v>
+        <v>4377579.374208286</v>
       </c>
       <c r="E21" t="n">
-        <v>936299.5726193346</v>
+        <v>4518107.616371654</v>
       </c>
       <c r="F21" t="n">
-        <v>936299.5726193346</v>
+        <v>4656278.902169496</v>
       </c>
       <c r="G21" t="n">
-        <v>936299.5726193346</v>
+        <v>4789228.668775789</v>
       </c>
       <c r="H21" t="n">
-        <v>936299.5726193346</v>
+        <v>4915600.792678274</v>
       </c>
       <c r="I21" t="n">
-        <v>936299.5726193346</v>
+        <v>5035164.572060406</v>
       </c>
       <c r="J21" t="n">
-        <v>936299.5726193346</v>
+        <v>5148412.138443246</v>
       </c>
       <c r="K21" t="n">
-        <v>936299.5726193346</v>
+        <v>5256222.326197185</v>
       </c>
       <c r="L21" t="n">
-        <v>936299.5726193346</v>
+        <v>5359617.144931816</v>
       </c>
       <c r="M21" t="n">
-        <v>936299.5726193346</v>
+        <v>5459603.168944217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1040535.766315773</v>
+        <v>12883268.3877883</v>
       </c>
       <c r="C22" t="n">
-        <v>1062213.594780684</v>
+        <v>13070793.28757524</v>
       </c>
       <c r="D22" t="n">
-        <v>1083891.423245564</v>
+        <v>13258318.18736249</v>
       </c>
       <c r="E22" t="n">
-        <v>1105569.251710504</v>
+        <v>13445843.08714998</v>
       </c>
       <c r="F22" t="n">
-        <v>1127247.0801754</v>
+        <v>13633367.98693711</v>
       </c>
       <c r="G22" t="n">
-        <v>1148924.908640355</v>
+        <v>13820892.88672459</v>
       </c>
       <c r="H22" t="n">
-        <v>1170602.73710525</v>
+        <v>14008417.78651166</v>
       </c>
       <c r="I22" t="n">
-        <v>1192280.565570056</v>
+        <v>14195942.68629932</v>
       </c>
       <c r="J22" t="n">
-        <v>1213958.394035101</v>
+        <v>14383467.58608675</v>
       </c>
       <c r="K22" t="n">
-        <v>1235636.222499847</v>
+        <v>14570992.4858737</v>
       </c>
       <c r="L22" t="n">
-        <v>1257314.050964862</v>
+        <v>14758517.38566113</v>
       </c>
       <c r="M22" t="n">
-        <v>1278991.879429713</v>
+        <v>14946042.28544819</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52195.93769938219</v>
+        <v>7440715.361103922</v>
       </c>
       <c r="C23" t="n">
-        <v>55670.42216708232</v>
+        <v>7457860.27352792</v>
       </c>
       <c r="D23" t="n">
-        <v>72473.95771109685</v>
+        <v>7475000.655926339</v>
       </c>
       <c r="E23" t="n">
-        <v>73328.76608426403</v>
+        <v>7492037.964875817</v>
       </c>
       <c r="F23" t="n">
-        <v>88089.41165220272</v>
+        <v>7509073.159517869</v>
       </c>
       <c r="G23" t="n">
-        <v>92896.65566550754</v>
+        <v>7526218.925497428</v>
       </c>
       <c r="H23" t="n">
-        <v>91263.74965740182</v>
+        <v>7543253.815917619</v>
       </c>
       <c r="I23" t="n">
-        <v>92633.51968204416</v>
+        <v>7560306.479954354</v>
       </c>
       <c r="J23" t="n">
-        <v>96128.16454171855</v>
+        <v>7577414.663889006</v>
       </c>
       <c r="K23" t="n">
-        <v>89677.75646310113</v>
+        <v>7594559.391655862</v>
       </c>
       <c r="L23" t="n">
-        <v>83132.88090173714</v>
+        <v>7611687.494887285</v>
       </c>
       <c r="M23" t="n">
-        <v>81443.18717880175</v>
+        <v>7628784.618211038</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>14056765.8005324</v>
+        <v>10952900.9081735</v>
       </c>
       <c r="C24" t="n">
-        <v>14349615.08804378</v>
+        <v>11138493.82902122</v>
       </c>
       <c r="D24" t="n">
-        <v>14642464.37555438</v>
+        <v>11324086.74986857</v>
       </c>
       <c r="E24" t="n">
-        <v>14935313.66306588</v>
+        <v>11509679.67071617</v>
       </c>
       <c r="F24" t="n">
-        <v>15228162.95057681</v>
+        <v>11695272.59156346</v>
       </c>
       <c r="G24" t="n">
-        <v>15521012.23808813</v>
+        <v>11880865.51241109</v>
       </c>
       <c r="H24" t="n">
-        <v>15813861.52559903</v>
+        <v>12066458.43325874</v>
       </c>
       <c r="I24" t="n">
-        <v>16106710.81310999</v>
+        <v>12252051.35410619</v>
       </c>
       <c r="J24" t="n">
-        <v>16399560.10062113</v>
+        <v>12437644.27495396</v>
       </c>
       <c r="K24" t="n">
-        <v>16692409.38813201</v>
+        <v>12623237.19580123</v>
       </c>
       <c r="L24" t="n">
-        <v>16985258.67564297</v>
+        <v>12808830.11664891</v>
       </c>
       <c r="M24" t="n">
-        <v>17278107.96315444</v>
+        <v>12994423.03749645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4367562.437453926</v>
+        <v>7579875.79873848</v>
       </c>
       <c r="C25" t="n">
-        <v>4458553.321567655</v>
+        <v>7737789.877879143</v>
       </c>
       <c r="D25" t="n">
-        <v>4549544.205681205</v>
+        <v>7895703.95702076</v>
       </c>
       <c r="E25" t="n">
-        <v>4640535.089794934</v>
+        <v>8053618.036158562</v>
       </c>
       <c r="F25" t="n">
-        <v>4731525.973908305</v>
+        <v>8211532.11530304</v>
       </c>
       <c r="G25" t="n">
-        <v>4822516.858022094</v>
+        <v>8369446.194440842</v>
       </c>
       <c r="H25" t="n">
-        <v>4913507.742135763</v>
+        <v>8527360.273579597</v>
       </c>
       <c r="I25" t="n">
-        <v>5004498.626249373</v>
+        <v>8685274.352721214</v>
       </c>
       <c r="J25" t="n">
-        <v>5095489.510362744</v>
+        <v>8843188.431860924</v>
       </c>
       <c r="K25" t="n">
-        <v>5186480.394476831</v>
+        <v>9001102.511002541</v>
       </c>
       <c r="L25" t="n">
-        <v>5277471.278590202</v>
+        <v>9159016.59014225</v>
       </c>
       <c r="M25" t="n">
-        <v>5368462.162703872</v>
+        <v>9316930.66928196</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12997889.85782528</v>
+        <v>12845624.29352987</v>
       </c>
       <c r="C26" t="n">
-        <v>13268679.22986323</v>
+        <v>13033570.39161092</v>
       </c>
       <c r="D26" t="n">
-        <v>13539468.60190135</v>
+        <v>13221516.48969227</v>
       </c>
       <c r="E26" t="n">
-        <v>13810257.97393942</v>
+        <v>13409462.58777249</v>
       </c>
       <c r="F26" t="n">
-        <v>14081047.34597749</v>
+        <v>13597408.685853</v>
       </c>
       <c r="G26" t="n">
-        <v>14351836.71801531</v>
+        <v>13785354.78393465</v>
       </c>
       <c r="H26" t="n">
-        <v>14622626.09005356</v>
+        <v>13973300.88201505</v>
       </c>
       <c r="I26" t="n">
-        <v>14893415.46209162</v>
+        <v>14161246.98009622</v>
       </c>
       <c r="J26" t="n">
-        <v>15164204.83412951</v>
+        <v>14349193.07817686</v>
       </c>
       <c r="K26" t="n">
-        <v>15434994.20616734</v>
+        <v>14537139.17625701</v>
       </c>
       <c r="L26" t="n">
-        <v>15705783.57820559</v>
+        <v>14725085.27433836</v>
       </c>
       <c r="M26" t="n">
-        <v>15976572.95024341</v>
+        <v>14913031.372419</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19042675.12273324</v>
+        <v>5171095.026676014</v>
       </c>
       <c r="C27" t="n">
-        <v>19439397.52112377</v>
+        <v>5279001.386068046</v>
       </c>
       <c r="D27" t="n">
-        <v>19836119.9195137</v>
+        <v>5367811.481872752</v>
       </c>
       <c r="E27" t="n">
-        <v>20232842.317904</v>
+        <v>5431187.896893457</v>
       </c>
       <c r="F27" t="n">
-        <v>20629564.71629393</v>
+        <v>5485978.7791688</v>
       </c>
       <c r="G27" t="n">
-        <v>21026287.1146847</v>
+        <v>5557094.790432289</v>
       </c>
       <c r="H27" t="n">
-        <v>21423009.51307523</v>
+        <v>5654637.109406501</v>
       </c>
       <c r="I27" t="n">
-        <v>21819731.91146529</v>
+        <v>5763686.665363431</v>
       </c>
       <c r="J27" t="n">
-        <v>22216454.30985582</v>
+        <v>5858571.734487444</v>
       </c>
       <c r="K27" t="n">
-        <v>22613176.70824516</v>
+        <v>5927268.899061382</v>
       </c>
       <c r="L27" t="n">
-        <v>23009899.10663605</v>
+        <v>5981780.374532104</v>
       </c>
       <c r="M27" t="n">
-        <v>23406621.50502646</v>
+        <v>6047113.156892776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10080458.09800911</v>
+        <v>12829586.35894656</v>
       </c>
       <c r="C28" t="n">
-        <v>10290467.64171791</v>
+        <v>12990821.88821435</v>
       </c>
       <c r="D28" t="n">
-        <v>10500477.18542624</v>
+        <v>13176715.09843683</v>
       </c>
       <c r="E28" t="n">
-        <v>10710486.72913408</v>
+        <v>13338660.62933111</v>
       </c>
       <c r="F28" t="n">
-        <v>10920496.27284241</v>
+        <v>13523819.22882462</v>
       </c>
       <c r="G28" t="n">
-        <v>11130505.81655121</v>
+        <v>13686523.26742077</v>
       </c>
       <c r="H28" t="n">
-        <v>11340515.36026049</v>
+        <v>13870900.28988504</v>
       </c>
       <c r="I28" t="n">
-        <v>11550524.90396881</v>
+        <v>14034408.22229242</v>
       </c>
       <c r="J28" t="n">
-        <v>11760534.44767666</v>
+        <v>14217959.91485858</v>
       </c>
       <c r="K28" t="n">
-        <v>11970543.99138498</v>
+        <v>14382313.82124901</v>
       </c>
       <c r="L28" t="n">
-        <v>12180553.53509474</v>
+        <v>14564999.82616591</v>
       </c>
       <c r="M28" t="n">
-        <v>12390563.07880259</v>
+        <v>14730238.30586863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13646705.13890886</v>
+        <v>2173354.504777774</v>
       </c>
       <c r="C29" t="n">
-        <v>14006350.86612606</v>
+        <v>2226379.909385934</v>
       </c>
       <c r="D29" t="n">
-        <v>14365996.59334183</v>
+        <v>2279405.31399411</v>
       </c>
       <c r="E29" t="n">
-        <v>14725642.32055807</v>
+        <v>2332430.7186023</v>
       </c>
       <c r="F29" t="n">
-        <v>15085288.04777527</v>
+        <v>2385456.123210549</v>
       </c>
       <c r="G29" t="n">
-        <v>15444933.77499104</v>
+        <v>2438481.527818739</v>
       </c>
       <c r="H29" t="n">
-        <v>15804579.50220823</v>
+        <v>2491506.932426885</v>
       </c>
       <c r="I29" t="n">
-        <v>16164225.22942448</v>
+        <v>2544532.33703509</v>
       </c>
       <c r="J29" t="n">
-        <v>16523870.95664072</v>
+        <v>2597557.74164319</v>
       </c>
       <c r="K29" t="n">
-        <v>16883516.68385792</v>
+        <v>2650583.146251336</v>
       </c>
       <c r="L29" t="n">
-        <v>17243162.41107321</v>
+        <v>2703608.550859481</v>
       </c>
       <c r="M29" t="n">
-        <v>17602808.13829041</v>
+        <v>2756633.955467716</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44433488.10893661</v>
+        <v>708340.3504086137</v>
       </c>
       <c r="C30" t="n">
-        <v>44939261.28559017</v>
+        <v>723097.4410421103</v>
       </c>
       <c r="D30" t="n">
-        <v>45445133.99097741</v>
+        <v>737854.5316756219</v>
       </c>
       <c r="E30" t="n">
-        <v>45950758.95433003</v>
+        <v>752611.6223091334</v>
       </c>
       <c r="F30" t="n">
-        <v>46456629.14438832</v>
+        <v>767368.7129426748</v>
       </c>
       <c r="G30" t="n">
-        <v>46962774.21387243</v>
+        <v>782125.8035761565</v>
       </c>
       <c r="H30" t="n">
-        <v>47468532.99102497</v>
+        <v>796882.894209668</v>
       </c>
       <c r="I30" t="n">
-        <v>47974393.71372271</v>
+        <v>811639.9848431945</v>
       </c>
       <c r="J30" t="n">
-        <v>48480047.18944633</v>
+        <v>826397.0754766911</v>
       </c>
       <c r="K30" t="n">
-        <v>48986159.68138206</v>
+        <v>841154.1661102325</v>
       </c>
       <c r="L30" t="n">
-        <v>49491866.41625375</v>
+        <v>855911.2567437142</v>
       </c>
       <c r="M30" t="n">
-        <v>49997500.36846673</v>
+        <v>870668.3473772705</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43619043.02314329</v>
+        <v>1145715.979346409</v>
       </c>
       <c r="C31" t="n">
-        <v>44024225.48025823</v>
+        <v>1169585.062249437</v>
       </c>
       <c r="D31" t="n">
-        <v>44429815.46829605</v>
+        <v>1193454.145152539</v>
       </c>
       <c r="E31" t="n">
-        <v>44835618.40213609</v>
+        <v>1217323.228055567</v>
       </c>
       <c r="F31" t="n">
-        <v>45241436.65773201</v>
+        <v>1241192.310958624</v>
       </c>
       <c r="G31" t="n">
-        <v>45647072.31275725</v>
+        <v>1265061.393861666</v>
       </c>
       <c r="H31" t="n">
-        <v>46052329.89612055</v>
+        <v>1288930.476764694</v>
       </c>
       <c r="I31" t="n">
-        <v>46457019.10880446</v>
+        <v>1312799.559667766</v>
       </c>
       <c r="J31" t="n">
-        <v>46860957.47861266</v>
+        <v>1336668.642570809</v>
       </c>
       <c r="K31" t="n">
-        <v>47263972.91195941</v>
+        <v>1360537.725473866</v>
       </c>
       <c r="L31" t="n">
-        <v>47665906.10693526</v>
+        <v>1384406.808376908</v>
       </c>
       <c r="M31" t="n">
-        <v>48066612.79347038</v>
+        <v>1408275.891279951</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>585425.8230145238</v>
+        <v>2168921.886131734</v>
       </c>
       <c r="C32" t="n">
-        <v>599067.3791053537</v>
+        <v>2214107.758759409</v>
       </c>
       <c r="D32" t="n">
-        <v>612708.9351961855</v>
+        <v>2259293.631387144</v>
       </c>
       <c r="E32" t="n">
-        <v>626350.4912870191</v>
+        <v>2304479.504014879</v>
       </c>
       <c r="F32" t="n">
-        <v>639992.0473778527</v>
+        <v>2349665.376642644</v>
       </c>
       <c r="G32" t="n">
-        <v>653633.6034686901</v>
+        <v>2394851.24927038</v>
       </c>
       <c r="H32" t="n">
-        <v>667275.1595595274</v>
+        <v>2440037.121898144</v>
       </c>
       <c r="I32" t="n">
-        <v>680916.7156503648</v>
+        <v>2485222.99452588</v>
       </c>
       <c r="J32" t="n">
-        <v>694558.2717412049</v>
+        <v>2530408.867153645</v>
       </c>
       <c r="K32" t="n">
-        <v>708199.8278320506</v>
+        <v>2575594.73978138</v>
       </c>
       <c r="L32" t="n">
-        <v>721841.3839228917</v>
+        <v>2620780.612409145</v>
       </c>
       <c r="M32" t="n">
-        <v>735482.9400137365</v>
+        <v>2665966.48503685</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4368669.401072077</v>
+        <v>2981819.130613297</v>
       </c>
       <c r="C33" t="n">
-        <v>4445881.430527017</v>
+        <v>3045146.641805619</v>
       </c>
       <c r="D33" t="n">
-        <v>4490974.468179479</v>
+        <v>3108855.613936976</v>
       </c>
       <c r="E33" t="n">
-        <v>4606576.098493785</v>
+        <v>3173154.466718048</v>
       </c>
       <c r="F33" t="n">
-        <v>4688680.362039879</v>
+        <v>3237268.785929471</v>
       </c>
       <c r="G33" t="n">
-        <v>4858414.946384043</v>
+        <v>3300731.973270044</v>
       </c>
       <c r="H33" t="n">
-        <v>5035198.893798202</v>
+        <v>3364161.173399255</v>
       </c>
       <c r="I33" t="n">
-        <v>5118176.328114584</v>
+        <v>3428230.281978846</v>
       </c>
       <c r="J33" t="n">
-        <v>5163606.490910053</v>
+        <v>3492547.831900641</v>
       </c>
       <c r="K33" t="n">
-        <v>5249259.802679002</v>
+        <v>3556308.388050199</v>
       </c>
       <c r="L33" t="n">
-        <v>5306622.77143237</v>
+        <v>3619634.420102373</v>
       </c>
       <c r="M33" t="n">
-        <v>5377281.292304948</v>
+        <v>3683371.222367495</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11648117.09162724</v>
+        <v>3079755.482328653</v>
       </c>
       <c r="C34" t="n">
-        <v>11890786.19770265</v>
+        <v>3113923.425773799</v>
       </c>
       <c r="D34" t="n">
-        <v>12133455.30377847</v>
+        <v>3148091.369218931</v>
       </c>
       <c r="E34" t="n">
-        <v>12376124.40985399</v>
+        <v>3182259.312663972</v>
       </c>
       <c r="F34" t="n">
-        <v>12618793.51592898</v>
+        <v>3216427.256109133</v>
       </c>
       <c r="G34" t="n">
-        <v>12861462.62200463</v>
+        <v>3250595.199554302</v>
       </c>
       <c r="H34" t="n">
-        <v>13104131.72808045</v>
+        <v>3284763.142999366</v>
       </c>
       <c r="I34" t="n">
-        <v>13346800.83415586</v>
+        <v>3318931.086444482</v>
       </c>
       <c r="J34" t="n">
-        <v>13589469.9402318</v>
+        <v>3353099.029889673</v>
       </c>
       <c r="K34" t="n">
-        <v>13832139.04630685</v>
+        <v>3387266.973334789</v>
       </c>
       <c r="L34" t="n">
-        <v>14074808.15238273</v>
+        <v>3421434.916779824</v>
       </c>
       <c r="M34" t="n">
-        <v>14317477.25845826</v>
+        <v>3455602.860224999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5669136.907893836</v>
+        <v>1963725.564936519</v>
       </c>
       <c r="C35" t="n">
-        <v>5792460.795940876</v>
+        <v>2004636.514205992</v>
       </c>
       <c r="D35" t="n">
-        <v>5915794.122331083</v>
+        <v>2045547.463475466</v>
       </c>
       <c r="E35" t="n">
-        <v>6039124.286739409</v>
+        <v>2086458.412745118</v>
       </c>
       <c r="F35" t="n">
-        <v>6162448.913389802</v>
+        <v>2127369.362014472</v>
       </c>
       <c r="G35" t="n">
-        <v>6285783.533365548</v>
+        <v>2168280.311283946</v>
       </c>
       <c r="H35" t="n">
-        <v>6409111.363418281</v>
+        <v>2209191.260553479</v>
       </c>
       <c r="I35" t="n">
-        <v>6532437.57613039</v>
+        <v>2250102.209823072</v>
       </c>
       <c r="J35" t="n">
-        <v>6655772.573901951</v>
+        <v>2291013.159092605</v>
       </c>
       <c r="K35" t="n">
-        <v>6779098.351845145</v>
+        <v>2331924.108361959</v>
       </c>
       <c r="L35" t="n">
-        <v>6902426.718235254</v>
+        <v>2372835.057631612</v>
       </c>
       <c r="M35" t="n">
-        <v>7025761.111353874</v>
+        <v>2413746.006901026</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4010431.978882968</v>
+        <v>1397159.606804252</v>
       </c>
       <c r="C36" t="n">
-        <v>4065220.06654039</v>
+        <v>1411652.271090955</v>
       </c>
       <c r="D36" t="n">
-        <v>4120008.154197931</v>
+        <v>1426143.056705475</v>
       </c>
       <c r="E36" t="n">
-        <v>4174796.241855532</v>
+        <v>1440637.334927469</v>
       </c>
       <c r="F36" t="n">
-        <v>4229584.329512969</v>
+        <v>1455133.55266571</v>
       </c>
       <c r="G36" t="n">
-        <v>4284372.41717051</v>
+        <v>1469626.311579376</v>
       </c>
       <c r="H36" t="n">
-        <v>4339160.504828006</v>
+        <v>1484117.070727795</v>
       </c>
       <c r="I36" t="n">
-        <v>4393948.592485487</v>
+        <v>1498611.253861785</v>
       </c>
       <c r="J36" t="n">
-        <v>4448736.680143028</v>
+        <v>1513107.496409655</v>
       </c>
       <c r="K36" t="n">
-        <v>4503524.76780045</v>
+        <v>1527600.350843668</v>
       </c>
       <c r="L36" t="n">
-        <v>4558312.855458021</v>
+        <v>1542091.086846143</v>
       </c>
       <c r="M36" t="n">
-        <v>4613100.943115413</v>
+        <v>1556585.174056649</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5899591.234757684</v>
+        <v>4535681.808484942</v>
       </c>
       <c r="C37" t="n">
-        <v>5991040.171869971</v>
+        <v>4583521.492595762</v>
       </c>
       <c r="D37" t="n">
-        <v>6135577.377050404</v>
+        <v>4631361.176706463</v>
       </c>
       <c r="E37" t="n">
-        <v>6519524.34930522</v>
+        <v>4679200.860817313</v>
       </c>
       <c r="F37" t="n">
-        <v>6334121.117539249</v>
+        <v>4727040.544928104</v>
       </c>
       <c r="G37" t="n">
-        <v>6379201.070816483</v>
+        <v>4774880.229038805</v>
       </c>
       <c r="H37" t="n">
-        <v>6826340.159460925</v>
+        <v>4822719.913149655</v>
       </c>
       <c r="I37" t="n">
-        <v>6770394.252667587</v>
+        <v>4870559.597260416</v>
       </c>
       <c r="J37" t="n">
-        <v>6709271.477218866</v>
+        <v>4918399.281371176</v>
       </c>
       <c r="K37" t="n">
-        <v>6529945.351491887</v>
+        <v>4966238.965481997</v>
       </c>
       <c r="L37" t="n">
-        <v>6590464.956796724</v>
+        <v>5014078.649592757</v>
       </c>
       <c r="M37" t="n">
-        <v>6734173.387675241</v>
+        <v>5061918.333703518</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3376524.837524659</v>
+        <v>4436440.234216273</v>
       </c>
       <c r="C38" t="n">
-        <v>3446869.104973087</v>
+        <v>4497678.167957366</v>
       </c>
       <c r="D38" t="n">
-        <v>3517213.372421518</v>
+        <v>4558916.101187468</v>
       </c>
       <c r="E38" t="n">
-        <v>3587557.639869947</v>
+        <v>4620154.033907413</v>
       </c>
       <c r="F38" t="n">
-        <v>3657901.907318379</v>
+        <v>4681391.966116488</v>
       </c>
       <c r="G38" t="n">
-        <v>3728246.174766809</v>
+        <v>4742629.897815824</v>
       </c>
       <c r="H38" t="n">
-        <v>3798590.44221524</v>
+        <v>4803867.82900548</v>
       </c>
       <c r="I38" t="n">
-        <v>3868934.709663671</v>
+        <v>4865105.75968504</v>
       </c>
       <c r="J38" t="n">
-        <v>3939278.9771121</v>
+        <v>4926343.689855456</v>
       </c>
       <c r="K38" t="n">
-        <v>4009623.244560529</v>
+        <v>4987581.61951673</v>
       </c>
       <c r="L38" t="n">
-        <v>4079967.512008961</v>
+        <v>5048819.548668504</v>
       </c>
       <c r="M38" t="n">
-        <v>4150311.779457391</v>
+        <v>5110057.477311492</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3608909.213361356</v>
+        <v>6477591.717971861</v>
       </c>
       <c r="C39" t="n">
-        <v>3641903.906997833</v>
+        <v>6612541.545429707</v>
       </c>
       <c r="D39" t="n">
-        <v>3674898.600634396</v>
+        <v>6747491.372887492</v>
       </c>
       <c r="E39" t="n">
-        <v>3707893.294270925</v>
+        <v>6882441.200345159</v>
       </c>
       <c r="F39" t="n">
-        <v>3740887.987907425</v>
+        <v>7017391.027803063</v>
       </c>
       <c r="G39" t="n">
-        <v>3773882.681543864</v>
+        <v>7152340.855260611</v>
       </c>
       <c r="H39" t="n">
-        <v>3806877.375180461</v>
+        <v>7287290.682718515</v>
       </c>
       <c r="I39" t="n">
-        <v>3839872.06881693</v>
+        <v>7422240.510176063</v>
       </c>
       <c r="J39" t="n">
-        <v>3872866.762453459</v>
+        <v>7557190.337633967</v>
       </c>
       <c r="K39" t="n">
-        <v>3905861.456089981</v>
+        <v>7692140.165091753</v>
       </c>
       <c r="L39" t="n">
-        <v>3938856.149726555</v>
+        <v>7827089.992549658</v>
       </c>
       <c r="M39" t="n">
-        <v>3971850.84336298</v>
+        <v>7962039.820007205</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13596051.347721</v>
+        <v>5392803.614464283</v>
       </c>
       <c r="C40" t="n">
-        <v>13830049.43345579</v>
+        <v>5368498.072783947</v>
       </c>
       <c r="D40" t="n">
-        <v>14064027.90468834</v>
+        <v>5626110.887895346</v>
       </c>
       <c r="E40" t="n">
-        <v>14298145.24355491</v>
+        <v>5670715.415366173</v>
       </c>
       <c r="F40" t="n">
-        <v>14532242.87339879</v>
+        <v>5562400.367131233</v>
       </c>
       <c r="G40" t="n">
-        <v>14766333.83958008</v>
+        <v>5758594.485285997</v>
       </c>
       <c r="H40" t="n">
-        <v>15000281.67323989</v>
+        <v>5932300.89906168</v>
       </c>
       <c r="I40" t="n">
-        <v>15234301.56664538</v>
+        <v>5776562.115848064</v>
       </c>
       <c r="J40" t="n">
-        <v>15468086.84016384</v>
+        <v>5893257.746321917</v>
       </c>
       <c r="K40" t="n">
-        <v>15701975.93942203</v>
+        <v>6151127.526524067</v>
       </c>
       <c r="L40" t="n">
-        <v>15935780.15012921</v>
+        <v>6018680.358661175</v>
       </c>
       <c r="M40" t="n">
-        <v>16169694.00164977</v>
+        <v>6048662.042844296</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7935150.286475182</v>
+        <v>3931358.931554079</v>
       </c>
       <c r="C41" t="n">
-        <v>7976433.520460129</v>
+        <v>4013262.242628098</v>
       </c>
       <c r="D41" t="n">
-        <v>8017357.933907032</v>
+        <v>4095165.553702354</v>
       </c>
       <c r="E41" t="n">
-        <v>8058389.085307598</v>
+        <v>4177068.864776134</v>
       </c>
       <c r="F41" t="n">
-        <v>8099854.094591379</v>
+        <v>4258972.175850272</v>
       </c>
       <c r="G41" t="n">
-        <v>8141075.533072948</v>
+        <v>4340875.486924052</v>
       </c>
       <c r="H41" t="n">
-        <v>8182157.924563646</v>
+        <v>4422778.797998309</v>
       </c>
       <c r="I41" t="n">
-        <v>8223333.978916407</v>
+        <v>4504682.109072328</v>
       </c>
       <c r="J41" t="n">
-        <v>8264505.243896484</v>
+        <v>4586585.420146585</v>
       </c>
       <c r="K41" t="n">
-        <v>8305544.279533386</v>
+        <v>4668488.731220245</v>
       </c>
       <c r="L41" t="n">
-        <v>8346400.585916996</v>
+        <v>4750392.042294621</v>
       </c>
       <c r="M41" t="n">
-        <v>8387292.488717556</v>
+        <v>4832295.353368521</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11112634.82905364</v>
+        <v>4300714.087115765</v>
       </c>
       <c r="C42" t="n">
-        <v>11344148.05465892</v>
+        <v>4350799.798988938</v>
       </c>
       <c r="D42" t="n">
-        <v>11575661.28026421</v>
+        <v>4400885.510861397</v>
       </c>
       <c r="E42" t="n">
-        <v>11807174.50586949</v>
+        <v>4450971.222734451</v>
       </c>
       <c r="F42" t="n">
-        <v>12038687.73147478</v>
+        <v>4501056.934607267</v>
       </c>
       <c r="G42" t="n">
-        <v>12270200.95708006</v>
+        <v>4551142.646480083</v>
       </c>
       <c r="H42" t="n">
-        <v>12501714.18268535</v>
+        <v>4601228.358353376</v>
       </c>
       <c r="I42" t="n">
-        <v>12733227.40829063</v>
+        <v>4651314.070226192</v>
       </c>
       <c r="J42" t="n">
-        <v>12964740.63389591</v>
+        <v>4701399.782099009</v>
       </c>
       <c r="K42" t="n">
-        <v>13196253.85950119</v>
+        <v>4751485.493972301</v>
       </c>
       <c r="L42" t="n">
-        <v>13427767.08510648</v>
+        <v>4801571.205844641</v>
       </c>
       <c r="M42" t="n">
-        <v>13659280.31071176</v>
+        <v>4851656.917717934</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5915977.845741093</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="C43" t="n">
-        <v>5968665.97379642</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="D43" t="n">
-        <v>6021345.357369751</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="E43" t="n">
-        <v>6074023.326235764</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="F43" t="n">
-        <v>6126702.677895606</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="G43" t="n">
-        <v>6179375.855316408</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="H43" t="n">
-        <v>6232043.955875076</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="I43" t="n">
-        <v>6284707.917580217</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="J43" t="n">
-        <v>6337405.217003651</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="K43" t="n">
-        <v>6390061.214047693</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="L43" t="n">
-        <v>6442747.257484421</v>
+        <v>2600751.065102036</v>
       </c>
       <c r="M43" t="n">
-        <v>6495410.084148437</v>
+        <v>2600751.065102036</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7849393.51000383</v>
+        <v>5959501.901826933</v>
       </c>
       <c r="C44" t="n">
-        <v>7849393.510008788</v>
+        <v>6007267.895986833</v>
       </c>
       <c r="D44" t="n">
-        <v>7849393.51003739</v>
+        <v>6055030.501143292</v>
       </c>
       <c r="E44" t="n">
-        <v>7849393.510027256</v>
+        <v>6102868.312982373</v>
       </c>
       <c r="F44" t="n">
-        <v>7849393.510028489</v>
+        <v>6150637.22437261</v>
       </c>
       <c r="G44" t="n">
-        <v>7849393.510035996</v>
+        <v>6198467.527844548</v>
       </c>
       <c r="H44" t="n">
-        <v>7849393.510022238</v>
+        <v>6246257.654599845</v>
       </c>
       <c r="I44" t="n">
-        <v>7849393.509998811</v>
+        <v>6294074.963546574</v>
       </c>
       <c r="J44" t="n">
-        <v>7849393.510008156</v>
+        <v>6341849.294132203</v>
       </c>
       <c r="K44" t="n">
-        <v>7849393.510009456</v>
+        <v>6389696.207256556</v>
       </c>
       <c r="L44" t="n">
-        <v>7849393.509986252</v>
+        <v>6437526.596722826</v>
       </c>
       <c r="M44" t="n">
-        <v>7849393.510007809</v>
+        <v>6485270.591742977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5315431.833900243</v>
+        <v>3017308.757049739</v>
       </c>
       <c r="C45" t="n">
-        <v>5401197.171815366</v>
+        <v>3039564.873622015</v>
       </c>
       <c r="D45" t="n">
-        <v>5486962.884529054</v>
+        <v>3061820.990194291</v>
       </c>
       <c r="E45" t="n">
-        <v>5572725.727096483</v>
+        <v>3084077.106766567</v>
       </c>
       <c r="F45" t="n">
-        <v>5658491.962890729</v>
+        <v>3106333.223338902</v>
       </c>
       <c r="G45" t="n">
-        <v>5744257.518084511</v>
+        <v>3128589.339911163</v>
       </c>
       <c r="H45" t="n">
-        <v>5830019.70103696</v>
+        <v>3150845.456483394</v>
       </c>
       <c r="I45" t="n">
-        <v>5915783.939937353</v>
+        <v>3173101.57305567</v>
       </c>
       <c r="J45" t="n">
-        <v>6001547.409169003</v>
+        <v>3195357.689627945</v>
       </c>
       <c r="K45" t="n">
-        <v>6087314.250307813</v>
+        <v>3217613.806200221</v>
       </c>
       <c r="L45" t="n">
-        <v>6173078.590250939</v>
+        <v>3239869.922772527</v>
       </c>
       <c r="M45" t="n">
-        <v>6258842.623433352</v>
+        <v>3262126.039344802</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>15303371.37978315</v>
+        <v>2292491.020520806</v>
       </c>
       <c r="C46" t="n">
-        <v>15622191.61686277</v>
+        <v>2301040.193940632</v>
       </c>
       <c r="D46" t="n">
-        <v>15941011.85393906</v>
+        <v>2309589.367360488</v>
       </c>
       <c r="E46" t="n">
-        <v>16259832.0910182</v>
+        <v>2318138.540780306</v>
       </c>
       <c r="F46" t="n">
-        <v>16578652.32809925</v>
+        <v>2326687.714200124</v>
       </c>
       <c r="G46" t="n">
-        <v>16897472.56517696</v>
+        <v>2335236.887619972</v>
       </c>
       <c r="H46" t="n">
-        <v>17216292.80225563</v>
+        <v>2343786.061039783</v>
       </c>
       <c r="I46" t="n">
-        <v>17535113.03933716</v>
+        <v>2352335.234459639</v>
       </c>
       <c r="J46" t="n">
-        <v>17853933.27641487</v>
+        <v>2360884.407879442</v>
       </c>
       <c r="K46" t="n">
-        <v>18172753.51349068</v>
+        <v>2369433.58129929</v>
       </c>
       <c r="L46" t="n">
-        <v>18491573.75057316</v>
+        <v>2377982.754719093</v>
       </c>
       <c r="M46" t="n">
-        <v>18810393.98765278</v>
+        <v>2386531.928138956</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2091067.82809545</v>
+        <v>2101764.800294831</v>
       </c>
       <c r="C47" t="n">
-        <v>2141874.176235784</v>
+        <v>2153880.342553288</v>
       </c>
       <c r="D47" t="n">
-        <v>2192680.672619496</v>
+        <v>2205995.88481167</v>
       </c>
       <c r="E47" t="n">
-        <v>2243489.639817264</v>
+        <v>2258111.427070066</v>
       </c>
       <c r="F47" t="n">
-        <v>2294303.020325018</v>
+        <v>2310226.969328538</v>
       </c>
       <c r="G47" t="n">
-        <v>2345122.077570602</v>
+        <v>2362342.511587009</v>
       </c>
       <c r="H47" t="n">
-        <v>2395947.201739216</v>
+        <v>2414458.05384554</v>
       </c>
       <c r="I47" t="n">
-        <v>2446777.849892015</v>
+        <v>2466573.596103922</v>
       </c>
       <c r="J47" t="n">
-        <v>2497612.629616559</v>
+        <v>2518689.138362408</v>
       </c>
       <c r="K47" t="n">
-        <v>2548449.513328213</v>
+        <v>2570804.680620879</v>
       </c>
       <c r="L47" t="n">
-        <v>2599286.150004346</v>
+        <v>2622920.222879335</v>
       </c>
       <c r="M47" t="n">
-        <v>2650120.226711025</v>
+        <v>2675035.765137672</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>696266.4254348874</v>
+        <v>5333461.854207039</v>
       </c>
       <c r="C48" t="n">
-        <v>710771.9759647846</v>
+        <v>5393645.131991833</v>
       </c>
       <c r="D48" t="n">
-        <v>725277.5264947116</v>
+        <v>5367986.41509667</v>
       </c>
       <c r="E48" t="n">
-        <v>739783.0770246387</v>
+        <v>5522141.155416816</v>
       </c>
       <c r="F48" t="n">
-        <v>754288.6275544465</v>
+        <v>5687810.439077049</v>
       </c>
       <c r="G48" t="n">
-        <v>768794.1780844033</v>
+        <v>5672762.646408468</v>
       </c>
       <c r="H48" t="n">
-        <v>783299.7286142111</v>
+        <v>5713875.054833561</v>
       </c>
       <c r="I48" t="n">
-        <v>797805.2791441381</v>
+        <v>5917558.622492909</v>
       </c>
       <c r="J48" t="n">
-        <v>812310.8296740055</v>
+        <v>5996734.631255299</v>
       </c>
       <c r="K48" t="n">
-        <v>826816.3802039027</v>
+        <v>5965316.529763341</v>
       </c>
       <c r="L48" t="n">
-        <v>841321.9307337999</v>
+        <v>6102143.890859395</v>
       </c>
       <c r="M48" t="n">
-        <v>855827.4812637568</v>
+        <v>6281063.451547056</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>828163.4238874726</v>
+        <v>829408.9602059647</v>
       </c>
       <c r="C49" t="n">
-        <v>838562.6115894318</v>
+        <v>847275.0675883591</v>
       </c>
       <c r="D49" t="n">
-        <v>848961.7992913723</v>
+        <v>865141.1025749967</v>
       </c>
       <c r="E49" t="n">
-        <v>859360.9869933352</v>
+        <v>883007.0860655606</v>
       </c>
       <c r="F49" t="n">
-        <v>869760.1746952832</v>
+        <v>900873.0415159017</v>
       </c>
       <c r="G49" t="n">
-        <v>880159.3623972349</v>
+        <v>918738.9937739223</v>
       </c>
       <c r="H49" t="n">
-        <v>890558.5500991791</v>
+        <v>936604.9678453654</v>
       </c>
       <c r="I49" t="n">
-        <v>900957.737801142</v>
+        <v>954470.9876537696</v>
       </c>
       <c r="J49" t="n">
-        <v>911356.92550309</v>
+        <v>972337.0748522729</v>
       </c>
       <c r="K49" t="n">
-        <v>921756.1132050529</v>
+        <v>990203.2477486208</v>
       </c>
       <c r="L49" t="n">
-        <v>932155.3009069897</v>
+        <v>1008069.520397827</v>
       </c>
       <c r="M49" t="n">
-        <v>942554.4886089489</v>
+        <v>1025935.901902631</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1986342.225677505</v>
+        <v>2810963.372404352</v>
       </c>
       <c r="C50" t="n">
-        <v>2055735.963360697</v>
+        <v>2869525.109329507</v>
       </c>
       <c r="D50" t="n">
-        <v>2134955.961927384</v>
+        <v>2928086.846254528</v>
       </c>
       <c r="E50" t="n">
-        <v>2220409.206179932</v>
+        <v>2986648.583179682</v>
       </c>
       <c r="F50" t="n">
-        <v>2308510.646504402</v>
+        <v>3045210.320104763</v>
       </c>
       <c r="G50" t="n">
-        <v>2396224.430345044</v>
+        <v>3103772.057029814</v>
       </c>
       <c r="H50" t="n">
-        <v>2481221.888837665</v>
+        <v>3162333.793954909</v>
       </c>
       <c r="I50" t="n">
-        <v>2561760.121065333</v>
+        <v>3220895.530880049</v>
       </c>
       <c r="J50" t="n">
-        <v>2636440.627153024</v>
+        <v>3279457.267805085</v>
       </c>
       <c r="K50" t="n">
-        <v>2704001.259502426</v>
+        <v>3338019.00473024</v>
       </c>
       <c r="L50" t="n">
-        <v>2763278.649692923</v>
+        <v>3396580.741655275</v>
       </c>
       <c r="M50" t="n">
-        <v>2813436.859074235</v>
+        <v>3455142.478580534</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2857546.454332806</v>
+        <v>3070344.178103868</v>
       </c>
       <c r="C51" t="n">
-        <v>2917078.672131449</v>
+        <v>3143251.257340916</v>
       </c>
       <c r="D51" t="n">
-        <v>2976610.889930021</v>
+        <v>3213383.684275735</v>
       </c>
       <c r="E51" t="n">
-        <v>3036143.107728586</v>
+        <v>3285780.888108633</v>
       </c>
       <c r="F51" t="n">
-        <v>3095675.325527232</v>
+        <v>3357423.635598402</v>
       </c>
       <c r="G51" t="n">
-        <v>3155207.543325834</v>
+        <v>3427982.873576656</v>
       </c>
       <c r="H51" t="n">
-        <v>3214739.761124432</v>
+        <v>3500985.375824194</v>
       </c>
       <c r="I51" t="n">
-        <v>3274271.97892306</v>
+        <v>3571235.607221566</v>
       </c>
       <c r="J51" t="n">
-        <v>3333804.196721673</v>
+        <v>3643356.453430504</v>
       </c>
       <c r="K51" t="n">
-        <v>3393336.414520264</v>
+        <v>3715307.869414058</v>
       </c>
       <c r="L51" t="n">
-        <v>3452868.632318817</v>
+        <v>3785657.174626842</v>
       </c>
       <c r="M51" t="n">
-        <v>3512400.850117445</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>3033024.233978122</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3064196.140380353</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3095945.254059657</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3128035.956077993</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3159540.425957486</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3190855.338493645</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3222661.242027566</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3254613.745442018</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3285755.342990234</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3317624.471561983</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3349699.903284609</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3381359.67181024</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1889611.055461474</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1928977.952450255</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1968344.849439035</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2007711.746427816</v>
-      </c>
-      <c r="F53" t="n">
-        <v>2047078.643416597</v>
-      </c>
-      <c r="G53" t="n">
-        <v>2086445.540405378</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2125812.437394159</v>
-      </c>
-      <c r="I53" t="n">
-        <v>2165179.33438294</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2204546.231371719</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2243913.1283605</v>
-      </c>
-      <c r="L53" t="n">
-        <v>2283280.025349281</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2322646.922338061</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1474767.03843211</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1493653.476772122</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1512409.280492369</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1531780.755334631</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1550645.564185899</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1570049.47537278</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1589329.485931031</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1608655.558423527</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1627435.358472962</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1646641.566782497</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1665778.013467621</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1684807.961954728</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>4663109.256629139</v>
-      </c>
-      <c r="C55" t="n">
-        <v>4716492.311689168</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4770100.783383965</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4823995.744293854</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4878166.871384084</v>
-      </c>
-      <c r="G55" t="n">
-        <v>4932535.059415072</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4986972.107890502</v>
-      </c>
-      <c r="I55" t="n">
-        <v>5041332.605282426</v>
-      </c>
-      <c r="J55" t="n">
-        <v>5095490.140712559</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5149368.865356684</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5202962.488159239</v>
-      </c>
-      <c r="M55" t="n">
-        <v>5256335.899560094</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4481219.551641762</v>
-      </c>
-      <c r="C56" t="n">
-        <v>4545970.399505675</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4610721.247369707</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4675472.095233738</v>
-      </c>
-      <c r="F56" t="n">
-        <v>4740222.943097711</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4804973.790961504</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4869724.638825715</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4934475.486689687</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4999226.334553719</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5063977.182417691</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5128728.030281544</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5193478.878145576</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>6057581.784501493</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6232017.163412213</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6411223.778871119</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6594077.756777942</v>
-      </c>
-      <c r="F57" t="n">
-        <v>6779286.386416078</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6965434.317924678</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7151039.570829749</v>
-      </c>
-      <c r="I57" t="n">
-        <v>7334614.034439683</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7514722.83205682</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7690037.442995787</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7859378.701385081</v>
-      </c>
-      <c r="M57" t="n">
-        <v>8021747.465297818</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5517585.020750523</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5565828.481051475</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5592536.457694501</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5629021.264157176</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5699750.269851267</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5804908.60852325</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5918998.401637346</v>
-      </c>
-      <c r="I58" t="n">
-        <v>6009485.694983423</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6061829.486433476</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6089545.06741032</v>
-      </c>
-      <c r="L58" t="n">
-        <v>6123277.044247478</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6189399.992369086</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3330092.70055264</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3374241.768018141</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3418390.708704894</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3462541.25288792</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3506690.125866955</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3550837.904534288</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3594988.763292851</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3639139.15864393</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3683289.303104187</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3727438.757256201</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3771588.400344853</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3815739.419152578</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4417706.288578734</v>
-      </c>
-      <c r="C60" t="n">
-        <v>4473261.354488537</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4528816.42039834</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4584371.486308113</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4639926.55221808</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4695481.618127808</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4751036.684037685</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4806591.749947429</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4862146.815857306</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4917701.881767124</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4973256.947676897</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5028812.013586789</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3250792.868873112</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3278554.41034767</v>
-      </c>
-      <c r="D61" t="n">
-        <v>3306315.951822199</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3334077.493296757</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3361839.034771293</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3389600.576245807</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3417362.117720366</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3445123.659194909</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3472885.20066949</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3500646.742144026</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3528408.283618592</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3556169.825093143</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>7917718.23812151</v>
-      </c>
-      <c r="C62" t="n">
-        <v>8082670.701411724</v>
-      </c>
-      <c r="D62" t="n">
-        <v>8247623.164709091</v>
-      </c>
-      <c r="E62" t="n">
-        <v>8412575.62800312</v>
-      </c>
-      <c r="F62" t="n">
-        <v>8577528.091296196</v>
-      </c>
-      <c r="G62" t="n">
-        <v>8742480.554590225</v>
-      </c>
-      <c r="H62" t="n">
-        <v>8907433.017886162</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9072385.481180191</v>
-      </c>
-      <c r="J62" t="n">
-        <v>9237337.94447422</v>
-      </c>
-      <c r="K62" t="n">
-        <v>9402290.407767296</v>
-      </c>
-      <c r="L62" t="n">
-        <v>9567242.871062279</v>
-      </c>
-      <c r="M62" t="n">
-        <v>9732195.334356308</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3120809.689596906</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3148821.499744348</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3176709.910868466</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3204718.05778069</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3232800.795828789</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3260677.923880428</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3288550.852016471</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3316696.645703182</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3344666.321877748</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3372477.308020063</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3400574.287829682</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3428616.010486223</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2096033.543764357</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2024016.868763879</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2074729.5172536</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2125195.776738435</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2175340.746787898</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2225196.091856673</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2274888.750051968</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2324598.293559447</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2374498.03662315</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2424699.051594973</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2475214.271841079</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2525953.720106401</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2576753.056477517</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5349986.773435444</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5440247.272466838</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5530507.771498471</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5620768.270529985</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5711028.769561559</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5801289.268593132</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5891549.767624497</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5981810.266656101</v>
-      </c>
-      <c r="J66" t="n">
-        <v>6072070.765687674</v>
-      </c>
-      <c r="K66" t="n">
-        <v>6162331.264719278</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6252591.763750762</v>
-      </c>
-      <c r="M66" t="n">
-        <v>6342852.262782276</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>793792.6549400464</v>
-      </c>
-      <c r="C67" t="n">
-        <v>810330.0019179583</v>
-      </c>
-      <c r="D67" t="n">
-        <v>826867.3488958776</v>
-      </c>
-      <c r="E67" t="n">
-        <v>843404.6958737969</v>
-      </c>
-      <c r="F67" t="n">
-        <v>859942.0428517237</v>
-      </c>
-      <c r="G67" t="n">
-        <v>876479.3898296356</v>
-      </c>
-      <c r="H67" t="n">
-        <v>893016.7368075624</v>
-      </c>
-      <c r="I67" t="n">
-        <v>909554.0837854668</v>
-      </c>
-      <c r="J67" t="n">
-        <v>926091.4307633936</v>
-      </c>
-      <c r="K67" t="n">
-        <v>942628.777741313</v>
-      </c>
-      <c r="L67" t="n">
-        <v>959166.1247192249</v>
-      </c>
-      <c r="M67" t="n">
-        <v>975703.4716971517</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>2730621.739023685</v>
-      </c>
-      <c r="C68" t="n">
-        <v>2787509.691920161</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2844397.644816339</v>
-      </c>
-      <c r="E68" t="n">
-        <v>2901285.597712696</v>
-      </c>
-      <c r="F68" t="n">
-        <v>2958173.550608963</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3015061.503505319</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3071949.456401676</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3128837.409298122</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3185725.36219424</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3242613.315090656</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3299501.267987013</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3356389.220883369</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3015407.903385401</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3087788.578128338</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3160169.252871156</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3232549.927614212</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3304930.602357149</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3377311.277100086</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3449691.951843143</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3522072.626586139</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3594453.301329076</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3666833.976071835</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3739214.650814772</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3811595.325557709</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>12040544.94632721</v>
-      </c>
-      <c r="C70" t="n">
-        <v>12291389.63270569</v>
-      </c>
-      <c r="D70" t="n">
-        <v>12542234.31908417</v>
-      </c>
-      <c r="E70" t="n">
-        <v>12793079.00547028</v>
-      </c>
-      <c r="F70" t="n">
-        <v>13043923.69185257</v>
-      </c>
-      <c r="G70" t="n">
-        <v>13294768.37823105</v>
-      </c>
-      <c r="H70" t="n">
-        <v>13545613.06461716</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13796457.75099945</v>
-      </c>
-      <c r="J70" t="n">
-        <v>14047302.43738174</v>
-      </c>
-      <c r="K70" t="n">
-        <v>14298147.12376022</v>
-      </c>
-      <c r="L70" t="n">
-        <v>14548991.81014252</v>
-      </c>
-      <c r="M70" t="n">
-        <v>14799836.49652481</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>26225226.49944007</v>
-      </c>
-      <c r="C71" t="n">
-        <v>26771585.38484502</v>
-      </c>
-      <c r="D71" t="n">
-        <v>27317944.27025002</v>
-      </c>
-      <c r="E71" t="n">
-        <v>27864303.15565503</v>
-      </c>
-      <c r="F71" t="n">
-        <v>28410662.04106006</v>
-      </c>
-      <c r="G71" t="n">
-        <v>28957020.92646503</v>
-      </c>
-      <c r="H71" t="n">
-        <v>29503379.81187004</v>
-      </c>
-      <c r="I71" t="n">
-        <v>30049738.69727498</v>
-      </c>
-      <c r="J71" t="n">
-        <v>30596097.58268002</v>
-      </c>
-      <c r="K71" t="n">
-        <v>31142456.46808505</v>
-      </c>
-      <c r="L71" t="n">
-        <v>31688815.35349008</v>
-      </c>
-      <c r="M71" t="n">
-        <v>32235174.23889506</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5194306.4441607</v>
-      </c>
-      <c r="C72" t="n">
-        <v>5302521.161746979</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5410735.879333973</v>
-      </c>
-      <c r="E72" t="n">
-        <v>5518950.596920967</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5627165.314507961</v>
-      </c>
-      <c r="G72" t="n">
-        <v>5735380.032094002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5843594.749680519</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5951809.467267752</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6060024.184854507</v>
-      </c>
-      <c r="K72" t="n">
-        <v>6168238.902440786</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6276453.620027781</v>
-      </c>
-      <c r="M72" t="n">
-        <v>6384668.337614775</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>7157387.450415134</v>
-      </c>
-      <c r="C73" t="n">
-        <v>7306499.688965082</v>
-      </c>
-      <c r="D73" t="n">
-        <v>7455611.927515507</v>
-      </c>
-      <c r="E73" t="n">
-        <v>7604724.166065931</v>
-      </c>
-      <c r="F73" t="n">
-        <v>7753836.404615641</v>
-      </c>
-      <c r="G73" t="n">
-        <v>7902948.643166304</v>
-      </c>
-      <c r="H73" t="n">
-        <v>8052060.88171649</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8201173.120266438</v>
-      </c>
-      <c r="J73" t="n">
-        <v>8350285.358817101</v>
-      </c>
-      <c r="K73" t="n">
-        <v>8499397.597367287</v>
-      </c>
-      <c r="L73" t="n">
-        <v>8648509.835918188</v>
-      </c>
-      <c r="M73" t="n">
-        <v>8797622.074468374</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>20139924.1667679</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20314859.79188132</v>
-      </c>
-      <c r="D74" t="n">
-        <v>20484656.97505379</v>
-      </c>
-      <c r="E74" t="n">
-        <v>20648865.05397326</v>
-      </c>
-      <c r="F74" t="n">
-        <v>20807175.78632605</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20959430.76265001</v>
-      </c>
-      <c r="H74" t="n">
-        <v>21105624.59643424</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21245905.10123491</v>
-      </c>
-      <c r="J74" t="n">
-        <v>21380568.84256744</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21510053.70028603</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21634928.01101851</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21755876.06579232</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>32158046.64366269</v>
-      </c>
-      <c r="C75" t="n">
-        <v>32828005.94873846</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33497965.25381505</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34167924.55889225</v>
-      </c>
-      <c r="F75" t="n">
-        <v>34837883.86396813</v>
-      </c>
-      <c r="G75" t="n">
-        <v>35507843.16904426</v>
-      </c>
-      <c r="H75" t="n">
-        <v>36177802.47412014</v>
-      </c>
-      <c r="I75" t="n">
-        <v>36847761.77919686</v>
-      </c>
-      <c r="J75" t="n">
-        <v>37517721.08427298</v>
-      </c>
-      <c r="K75" t="n">
-        <v>38187680.38935006</v>
-      </c>
-      <c r="L75" t="n">
-        <v>38857639.69442618</v>
-      </c>
-      <c r="M75" t="n">
-        <v>39527598.99950159</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>10080458.09800911</v>
-      </c>
-      <c r="C76" t="n">
-        <v>10290467.64171791</v>
-      </c>
-      <c r="D76" t="n">
-        <v>10500477.18542624</v>
-      </c>
-      <c r="E76" t="n">
-        <v>10710486.72913408</v>
-      </c>
-      <c r="F76" t="n">
-        <v>10920496.27284241</v>
-      </c>
-      <c r="G76" t="n">
-        <v>11130505.81655121</v>
-      </c>
-      <c r="H76" t="n">
-        <v>11340515.36026049</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11550524.90396881</v>
-      </c>
-      <c r="J76" t="n">
-        <v>11760534.44767666</v>
-      </c>
-      <c r="K76" t="n">
-        <v>11970543.99138498</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12180553.53509474</v>
-      </c>
-      <c r="M76" t="n">
-        <v>12390563.07880259</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>13204181.177598</v>
-      </c>
-      <c r="C77" t="n">
-        <v>13536052.19877863</v>
-      </c>
-      <c r="D77" t="n">
-        <v>13868067.32019806</v>
-      </c>
-      <c r="E77" t="n">
-        <v>14200149.26007366</v>
-      </c>
-      <c r="F77" t="n">
-        <v>14531876.36351514</v>
-      </c>
-      <c r="G77" t="n">
-        <v>14863634.85204315</v>
-      </c>
-      <c r="H77" t="n">
-        <v>15195510.1440289</v>
-      </c>
-      <c r="I77" t="n">
-        <v>15527245.77360535</v>
-      </c>
-      <c r="J77" t="n">
-        <v>15859035.09454536</v>
-      </c>
-      <c r="K77" t="n">
-        <v>16190912.82466793</v>
-      </c>
-      <c r="L77" t="n">
-        <v>16522784.27461004</v>
-      </c>
-      <c r="M77" t="n">
-        <v>16854667.30240369</v>
+        <v>3858676.603039272</v>
       </c>
     </row>
   </sheetData>
